--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405" activeTab="1"/>
+    <workbookView windowWidth="20130" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.接口标准" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
   <si>
     <t>RESTFul URL HTTP方法分类</t>
   </si>
@@ -256,10 +256,118 @@
     <t>前端开发人员</t>
   </si>
   <si>
-    <t>获取卡的流水记录</t>
-  </si>
-  <si>
-    <t>出售会员卡</t>
+    <t>用户模块</t>
+  </si>
+  <si>
+    <t>微信登录</t>
+  </si>
+  <si>
+    <t>头像更新</t>
+  </si>
+  <si>
+    <t>昵称修改</t>
+  </si>
+  <si>
+    <t>年龄更新</t>
+  </si>
+  <si>
+    <t>性别更新</t>
+  </si>
+  <si>
+    <t>个人简介更新</t>
+  </si>
+  <si>
+    <t>联系方式更新</t>
+  </si>
+  <si>
+    <t>发布动态</t>
+  </si>
+  <si>
+    <t>删除动态</t>
+  </si>
+  <si>
+    <t>首页获取服务人员</t>
+  </si>
+  <si>
+    <t>申请加入商户</t>
+  </si>
+  <si>
+    <t>分为扫码、点击链接加入两种</t>
+  </si>
+  <si>
+    <t>提出商户</t>
+  </si>
+  <si>
+    <t>服务模块</t>
+  </si>
+  <si>
+    <t>用户服务发布</t>
+  </si>
+  <si>
+    <t>用户服务删除</t>
+  </si>
+  <si>
+    <t>获取服务列表</t>
+  </si>
+  <si>
+    <t>商户服务发布</t>
+  </si>
+  <si>
+    <t>商户服务删除</t>
+  </si>
+  <si>
+    <t>订单模块</t>
+  </si>
+  <si>
+    <t>提交订单</t>
+  </si>
+  <si>
+    <t>支付订单</t>
+  </si>
+  <si>
+    <t>取消订单</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>订单详情查询</t>
+  </si>
+  <si>
+    <t>商户模块</t>
+  </si>
+  <si>
+    <t>商户登录</t>
+  </si>
+  <si>
+    <t>商户名称更新</t>
+  </si>
+  <si>
+    <t>商户电话更新</t>
+  </si>
+  <si>
+    <t>商户地址更新</t>
+  </si>
+  <si>
+    <t>获取员工列表</t>
+  </si>
+  <si>
+    <t>员工信息查询</t>
+  </si>
+  <si>
+    <t>员工删除</t>
+  </si>
+  <si>
+    <t>自定义添加员工</t>
+  </si>
+  <si>
+    <t>查看员工申请</t>
+  </si>
+  <si>
+    <t>审核员工申请</t>
+  </si>
+  <si>
+    <t>分为同意和不同意两种</t>
   </si>
   <si>
     <t>http://[host:port]/flycoiot</t>
@@ -950,12 +1058,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1013,6 +1121,11 @@
       <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1075,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1120,6 +1233,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1150,7 +1309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1269,6 +1428,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,6 +1442,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,10 +1556,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1757,322 +1934,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="83"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="89" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="89" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="83"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="89" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="F9" s="85" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="F9" s="91" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="86"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="91" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="86"/>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="92" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="87" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="89" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="89" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="89" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="89" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="83"/>
-      <c r="C24" s="83" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="89" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83" t="s">
+      <c r="B25" s="89"/>
+      <c r="C25" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="83"/>
-      <c r="C26" s="83" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="89" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="89" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83" t="s">
+      <c r="B29" s="89"/>
+      <c r="C29" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="89" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="83"/>
-      <c r="C30" s="86" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="92" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="83"/>
-      <c r="C31" s="86" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="92" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="83"/>
-      <c r="C32" s="86" t="s">
+      <c r="B32" s="89"/>
+      <c r="C32" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="92" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="83"/>
-      <c r="C33" s="86" t="s">
+      <c r="B33" s="89"/>
+      <c r="C33" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="92" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="83"/>
-      <c r="C34" s="86" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="86" t="s">
+      <c r="D34" s="92" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="83"/>
-      <c r="C35" s="83" t="s">
+      <c r="B35" s="89"/>
+      <c r="C35" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="89" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83" t="s">
+      <c r="B36" s="89"/>
+      <c r="C36" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="83"/>
-      <c r="C37" s="86" t="s">
+      <c r="B37" s="89"/>
+      <c r="C37" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="92" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId3" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
-    <hyperlink ref="F9" r:id="rId4" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2087,8 +2264,8 @@
   <sheetPr/>
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2155,160 +2332,178 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" ht="44" customHeight="1" spans="1:12">
+    <row r="4" ht="30" customHeight="1" spans="1:12">
       <c r="A4" s="37">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="D4" s="38"/>
       <c r="E4" s="37"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
-      <c r="I4" s="65"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
     </row>
-    <row r="5" ht="63" customHeight="1" spans="1:12">
+    <row r="5" ht="30" customHeight="1" spans="1:12">
       <c r="A5" s="37">
         <v>2</v>
       </c>
       <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="C5" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" s="38"/>
       <c r="E5" s="37"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
-      <c r="I5" s="65"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
     </row>
-    <row r="6" ht="59.1" customHeight="1" spans="1:12">
+    <row r="6" ht="30" customHeight="1" spans="1:12">
       <c r="A6" s="37">
         <v>3</v>
       </c>
       <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="38"/>
       <c r="E6" s="37"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
-      <c r="I6" s="65"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" ht="72.95" customHeight="1" spans="1:12">
+    <row r="7" ht="30" customHeight="1" spans="1:12">
       <c r="A7" s="37">
         <v>4</v>
       </c>
       <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" s="38"/>
       <c r="E7" s="37"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="65"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
     </row>
-    <row r="8" ht="59.1" customHeight="1" spans="1:12">
+    <row r="8" ht="30" customHeight="1" spans="1:12">
       <c r="A8" s="37">
         <v>5</v>
       </c>
       <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" s="38"/>
       <c r="E8" s="37"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
-      <c r="I8" s="65"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
     </row>
-    <row r="9" ht="86.1" customHeight="1" spans="1:12">
+    <row r="9" ht="30" customHeight="1" spans="1:12">
       <c r="A9" s="37">
         <v>6</v>
       </c>
       <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="38"/>
       <c r="E9" s="37"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
-      <c r="I9" s="65"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" ht="53" customHeight="1" spans="1:12">
+    <row r="10" ht="30" customHeight="1" spans="1:12">
       <c r="A10" s="37">
         <v>7</v>
       </c>
       <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="D10" s="38"/>
       <c r="E10" s="37"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="65"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" ht="90" customHeight="1" spans="1:12">
+    <row r="11" ht="30" customHeight="1" spans="1:12">
       <c r="A11" s="37">
         <v>8</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="38" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="37"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="65"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" ht="73" customHeight="1" spans="1:12">
+    <row r="12" ht="30" customHeight="1" spans="1:12">
       <c r="A12" s="37">
         <v>9</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="65"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" ht="71.1" customHeight="1" spans="1:12">
+    <row r="13" ht="30" customHeight="1" spans="1:12">
       <c r="A13" s="37">
         <v>10</v>
       </c>
       <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="C13" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="38"/>
       <c r="E13" s="37"/>
       <c r="F13" s="39"/>
@@ -2319,11 +2514,15 @@
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" ht="30" customHeight="1" spans="1:12">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -2333,10 +2532,12 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="30" customHeight="1" spans="1:12">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" s="38"/>
       <c r="E15" s="37"/>
       <c r="F15" s="39"/>
@@ -2347,10 +2548,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" ht="30" customHeight="1" spans="1:12">
       <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="D16" s="38"/>
       <c r="E16" s="37"/>
       <c r="F16" s="39"/>
@@ -2361,10 +2566,12 @@
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" ht="150" customHeight="1" spans="1:12">
+    <row r="17" ht="30" customHeight="1" spans="1:12">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="D17" s="38"/>
       <c r="E17" s="37"/>
       <c r="F17" s="39"/>
@@ -2375,10 +2582,12 @@
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" ht="30" customHeight="1" spans="1:12">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="D18" s="38"/>
       <c r="E18" s="37"/>
       <c r="F18" s="39"/>
@@ -2389,24 +2598,28 @@
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" s="30" customFormat="1" spans="1:12">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="40"/>
+    <row r="19" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" ht="30" customHeight="1" spans="1:12">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="39"/>
@@ -2417,25 +2630,31 @@
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" ht="66" customHeight="1" spans="1:12">
+    <row r="21" ht="30" customHeight="1" spans="1:12">
       <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="48"/>
       <c r="E21" s="37"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="66"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" ht="30" customHeight="1" spans="1:12">
       <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="48"/>
       <c r="E22" s="37"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -2445,25 +2664,29 @@
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" ht="30" customHeight="1" spans="1:12">
       <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="48"/>
       <c r="E23" s="37"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
-      <c r="I23" s="65"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" ht="30" customHeight="1" spans="1:12">
       <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="48"/>
       <c r="E24" s="37"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
@@ -2473,24 +2696,30 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" ht="30" customHeight="1" spans="1:12">
       <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="48"/>
       <c r="E25" s="37"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" ht="30" customHeight="1" spans="1:12">
       <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
       <c r="F26" s="39"/>
@@ -2501,10 +2730,12 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" ht="30" customHeight="1" spans="1:12">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="41" t="s">
+        <v>105</v>
+      </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="39"/>
@@ -2515,10 +2746,12 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" ht="30" customHeight="1" spans="1:12">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="39"/>
@@ -2529,145 +2762,161 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" s="30" customFormat="1" spans="1:12">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-    </row>
-    <row r="30" s="30" customFormat="1" spans="1:12">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-    </row>
-    <row r="31" s="30" customFormat="1" spans="1:12">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-    </row>
-    <row r="32" s="30" customFormat="1" spans="1:12">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-    </row>
-    <row r="33" s="30" customFormat="1" spans="1:12">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-    </row>
-    <row r="34" s="30" customFormat="1" spans="1:12">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-    </row>
-    <row r="35" s="30" customFormat="1" spans="1:12">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
+    <row r="29" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+    </row>
+    <row r="34" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+    </row>
+    <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" s="30" customFormat="1" spans="1:12">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" s="30" customFormat="1" spans="1:12">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" s="30" customFormat="1" spans="1:12">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="37"/>
@@ -2678,10 +2927,10 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="65"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="37"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="37"/>
@@ -2694,8 +2943,8 @@
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="37"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="37"/>
@@ -2708,8 +2957,8 @@
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
       <c r="J41" s="37"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="37"/>
@@ -2722,8 +2971,8 @@
       <c r="H42" s="39"/>
       <c r="I42" s="39"/>
       <c r="J42" s="37"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="37"/>
@@ -2736,8 +2985,8 @@
       <c r="H43" s="39"/>
       <c r="I43" s="39"/>
       <c r="J43" s="37"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="37"/>
@@ -2750,423 +2999,423 @@
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
       <c r="J44" s="37"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="37"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
     </row>
     <row r="47" s="31" customFormat="1" ht="66" customHeight="1" spans="1:12">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" s="31" customFormat="1" spans="1:12">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" s="31" customFormat="1" spans="1:12">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" s="31" customFormat="1" spans="1:12">
-      <c r="A50" s="45"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
     </row>
     <row r="51" s="31" customFormat="1" spans="1:12">
-      <c r="A51" s="45"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
     </row>
     <row r="52" s="31" customFormat="1" spans="1:12">
-      <c r="A52" s="45"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
     </row>
     <row r="53" s="31" customFormat="1" spans="1:12">
-      <c r="A53" s="45"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
     </row>
     <row r="54" s="31" customFormat="1" spans="1:12">
-      <c r="A54" s="45"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
     </row>
     <row r="55" s="31" customFormat="1" spans="1:12">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
     </row>
     <row r="56" s="31" customFormat="1" spans="1:12">
-      <c r="A56" s="45"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="72"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="78"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" s="31" customFormat="1" spans="1:12">
-      <c r="A57" s="45"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
     </row>
     <row r="58" s="31" customFormat="1" ht="15" spans="1:12">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
     </row>
     <row r="59" s="31" customFormat="1" spans="1:12">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="37"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
-      <c r="I60" s="62"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="37"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="G61" s="62"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="37"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="37"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
     </row>
     <row r="64" s="30" customFormat="1" spans="1:12">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="37"/>
-      <c r="B65" s="60"/>
-      <c r="H65" s="62"/>
+      <c r="B65" s="66"/>
+      <c r="H65" s="68"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="37"/>
-      <c r="B66" s="60"/>
+      <c r="B66" s="66"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="37"/>
-      <c r="B67" s="60"/>
+      <c r="B67" s="66"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="37"/>
-      <c r="B68" s="60"/>
+      <c r="B68" s="66"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="37"/>
-      <c r="B69" s="60"/>
+      <c r="B69" s="66"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="37"/>
-      <c r="B70" s="60"/>
+      <c r="B70" s="66"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="37"/>
-      <c r="B71" s="60"/>
+      <c r="B71" s="66"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="37"/>
-      <c r="B72" s="60"/>
-      <c r="D72" s="61"/>
+      <c r="B72" s="66"/>
+      <c r="D72" s="67"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="37"/>
-      <c r="B73" s="60"/>
+      <c r="B73" s="66"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="37"/>
-      <c r="B74" s="60"/>
-      <c r="I74" s="61"/>
+      <c r="B74" s="66"/>
+      <c r="I74" s="67"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="37"/>
-      <c r="B75" s="60"/>
-      <c r="D75" s="61"/>
+      <c r="B75" s="66"/>
+      <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="37"/>
-      <c r="B76" s="60"/>
-      <c r="I76" s="79"/>
+      <c r="B76" s="66"/>
+      <c r="I76" s="85"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="37"/>
-      <c r="B77" s="60"/>
-      <c r="D77" s="61"/>
+      <c r="B77" s="66"/>
+      <c r="D77" s="67"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="37"/>
-      <c r="B78" s="60"/>
+      <c r="B78" s="66"/>
     </row>
     <row r="79" ht="267.95" customHeight="1" spans="1:4">
       <c r="A79" s="37"/>
-      <c r="B79" s="60"/>
-      <c r="D79" s="61"/>
+      <c r="B79" s="66"/>
+      <c r="D79" s="67"/>
     </row>
     <row r="80" ht="63.95" customHeight="1" spans="1:4">
       <c r="A80" s="37"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="37"/>
-      <c r="B81" s="60"/>
-      <c r="I81" s="62"/>
+      <c r="B81" s="66"/>
+      <c r="I81" s="68"/>
     </row>
     <row r="82" ht="54.95" customHeight="1" spans="1:10">
       <c r="A82" s="37"/>
-      <c r="B82" s="60"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="80"/>
+      <c r="B82" s="66"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="86"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="37"/>
-      <c r="B83" s="60"/>
-      <c r="D83" s="61"/>
-      <c r="I83" s="62"/>
+      <c r="B83" s="66"/>
+      <c r="D83" s="67"/>
+      <c r="I83" s="68"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="37"/>
-      <c r="B84" s="60"/>
+      <c r="B84" s="66"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="37"/>
-      <c r="B85" s="60"/>
+      <c r="B85" s="66"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="37"/>
-      <c r="B86" s="60"/>
-      <c r="D86" s="61"/>
+      <c r="B86" s="66"/>
+      <c r="D86" s="67"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="37"/>
-      <c r="B87" s="60"/>
-      <c r="D87" s="61"/>
+      <c r="B87" s="66"/>
+      <c r="D87" s="67"/>
     </row>
     <row r="88" ht="72" customHeight="1" spans="1:4">
       <c r="A88" s="37"/>
-      <c r="B88" s="60"/>
-      <c r="D88" s="61"/>
+      <c r="B88" s="66"/>
+      <c r="D88" s="67"/>
     </row>
     <row r="89" ht="66.95" customHeight="1" spans="1:4">
       <c r="A89" s="37"/>
-      <c r="B89" s="60"/>
-      <c r="D89" s="61"/>
+      <c r="B89" s="66"/>
+      <c r="D89" s="67"/>
     </row>
     <row r="90" ht="98.1" customHeight="1" spans="1:2">
       <c r="A90" s="37"/>
-      <c r="B90" s="60"/>
+      <c r="B90" s="66"/>
     </row>
     <row r="91" ht="171.75" customHeight="1" spans="1:4">
       <c r="A91" s="37"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
     </row>
     <row r="92" ht="75" customHeight="1" spans="1:4">
       <c r="A92" s="37"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
     </row>
     <row r="93" ht="82.5" customHeight="1" spans="1:8">
       <c r="A93" s="37"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="H93" s="78"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="H93" s="84"/>
     </row>
     <row r="94" ht="82.5" customHeight="1" spans="1:8">
       <c r="A94" s="37"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-      <c r="H94" s="78"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="H94" s="84"/>
     </row>
     <row r="95" ht="259.5" customHeight="1" spans="1:4">
       <c r="A95" s="37"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
     </row>
     <row r="96" ht="156" customHeight="1" spans="1:2">
       <c r="A96" s="37"/>
-      <c r="B96" s="60"/>
+      <c r="B96" s="66"/>
     </row>
     <row r="97" ht="234" customHeight="1" spans="1:2">
       <c r="A97" s="37"/>
-      <c r="B97" s="60"/>
+      <c r="B97" s="66"/>
     </row>
     <row r="98" ht="165.95" customHeight="1"/>
     <row r="99" ht="156" customHeight="1"/>
@@ -3214,7 +3463,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -3250,22 +3499,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -3274,22 +3523,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3298,22 +3547,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3322,25 +3571,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" ht="120.2" customHeight="1" spans="1:8">
@@ -3348,20 +3597,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3370,22 +3619,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3419,24 +3668,24 @@
         <v>-2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="20" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="J1" s="20"/>
     </row>
@@ -3446,26 +3695,26 @@
         <v>-1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="20" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="J2" s="20"/>
     </row>
@@ -3475,26 +3724,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="20" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="J3" s="20"/>
     </row>
@@ -3504,22 +3753,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
@@ -3531,26 +3780,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="20" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="J5" s="20"/>
     </row>
@@ -3560,24 +3809,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="20" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -3617,7 +3866,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3663,25 +3912,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3692,22 +3941,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="11"/>
@@ -3719,22 +3968,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="11"/>
@@ -3746,22 +3995,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="11"/>
@@ -3773,22 +4022,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="11"/>
@@ -3800,22 +4049,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="11"/>
@@ -3827,22 +4076,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="11"/>
@@ -3854,22 +4103,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="11"/>
@@ -3881,20 +4130,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="11"/>
@@ -3906,20 +4155,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="11"/>
@@ -3931,20 +4180,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="11"/>
@@ -3956,20 +4205,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="11"/>
@@ -3981,20 +4230,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="11"/>
@@ -4006,20 +4255,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="11"/>
@@ -4031,20 +4280,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="17" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="11"/>
@@ -4056,20 +4305,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="17" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="11"/>
@@ -4081,22 +4330,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="11"/>
@@ -4108,22 +4357,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="11"/>
@@ -4135,22 +4384,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="11"/>
@@ -4162,20 +4411,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="11"/>
@@ -4187,22 +4436,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="11"/>

--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -14,7 +14,7 @@
     <sheet name="前台调平台接口" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$3:$K$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">前台调平台接口!$A$3:$J$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>RESTFul URL HTTP方法分类</t>
   </si>
@@ -295,7 +295,7 @@
     <t>分为扫码、点击链接加入两种</t>
   </si>
   <si>
-    <t>提出商户</t>
+    <t>退出商户</t>
   </si>
   <si>
     <t>服务模块</t>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>订单详情查询</t>
+  </si>
+  <si>
+    <t>财务模块</t>
+  </si>
+  <si>
+    <t>获取个人账户流水</t>
+  </si>
+  <si>
+    <t>获取个人账户余额</t>
+  </si>
+  <si>
+    <t>增加个人账户流水并修改余额</t>
   </si>
   <si>
     <t>商户模块</t>
@@ -1058,10 +1070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1177,7 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1279,6 +1291,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1309,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1398,26 +1423,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1425,14 +1447,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1440,130 +1459,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1922,8 +1873,8 @@
   <sheetPr/>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1934,322 +1885,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="63" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="F9" s="65" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="65" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="92"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="61" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="63" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="63" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="89"/>
-      <c r="C23" s="89" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="63" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="89"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="89"/>
-      <c r="C25" s="89" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="63" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="63" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="63" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="63" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="89"/>
-      <c r="C29" s="89" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="63" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="89"/>
-      <c r="C30" s="92" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="66" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="89"/>
-      <c r="C31" s="92" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="89"/>
-      <c r="C32" s="92" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="66" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="89"/>
-      <c r="C33" s="92" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="89"/>
-      <c r="C34" s="92" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="66" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="89"/>
-      <c r="C35" s="89" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="63" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="89"/>
-      <c r="C36" s="89" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="89"/>
-      <c r="C37" s="92" t="s">
+      <c r="B37" s="63"/>
+      <c r="C37" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId3" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2262,10 +2213,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2274,1156 +2227,1204 @@
     <col min="3" max="3" width="18.8571428571429" style="32" customWidth="1"/>
     <col min="4" max="4" width="22.1809523809524" style="32" customWidth="1"/>
     <col min="5" max="5" width="15.8571428571429" style="32" customWidth="1"/>
-    <col min="6" max="6" width="47.3904761904762" style="33" customWidth="1"/>
-    <col min="7" max="7" width="15.9619047619048" style="33" customWidth="1"/>
-    <col min="8" max="8" width="46.2857142857143" style="33" customWidth="1"/>
-    <col min="9" max="9" width="33.4285714285714" style="33" customWidth="1"/>
-    <col min="10" max="10" width="30.7142857142857" style="34" customWidth="1"/>
+    <col min="6" max="6" width="47.3904761904762" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.9619047619048" style="32" customWidth="1"/>
+    <col min="8" max="8" width="46.2857142857143" style="32" customWidth="1"/>
+    <col min="9" max="9" width="33.4285714285714" style="32" customWidth="1"/>
+    <col min="10" max="10" width="30.7142857142857" style="32" customWidth="1"/>
     <col min="11" max="12" width="9.14285714285714" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="34"/>
+    <col min="13" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="35" t="s">
+    <row r="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="3" ht="37.7" customHeight="1" spans="1:12">
-      <c r="A3" s="35" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" ht="37.7" customHeight="1" spans="1:12">
+      <c r="A2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L2" s="33" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="3" ht="30" customHeight="1" spans="1:12">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+    </row>
     <row r="4" ht="30" customHeight="1" spans="1:12">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:12">
-      <c r="A5" s="37">
-        <v>2</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:12">
-      <c r="A6" s="37">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="A6" s="36">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:12">
-      <c r="A7" s="37">
-        <v>4</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="A7" s="36">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:12">
-      <c r="A8" s="37">
-        <v>5</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="A8" s="36">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:12">
-      <c r="A9" s="37">
-        <v>6</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="A9" s="36">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:12">
-      <c r="A10" s="37">
-        <v>7</v>
-      </c>
-      <c r="B10" s="37"/>
+      <c r="A10" s="36">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:12">
-      <c r="A11" s="37">
-        <v>8</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="A11" s="36">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:12">
-      <c r="A12" s="37">
-        <v>9</v>
-      </c>
-      <c r="B12" s="37"/>
+      <c r="A12" s="36">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:12">
-      <c r="A13" s="37">
-        <v>10</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:12">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:12">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:12">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:12">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:12">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="41" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:12">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:12">
-      <c r="A21" s="37"/>
-      <c r="B21" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:12">
-      <c r="A22" s="37"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:12">
-      <c r="A23" s="37"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:12">
-      <c r="A24" s="37"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:12">
-      <c r="A25" s="37"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:12">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:12">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:12">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="41" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:12">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="41" t="s">
+      <c r="C29" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-    </row>
-    <row r="31" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="41" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:12">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:12">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
     </row>
     <row r="33" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
     </row>
     <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="42" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-    </row>
-    <row r="36" s="30" customFormat="1" spans="1:12">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-    </row>
-    <row r="37" s="30" customFormat="1" spans="1:12">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-    </row>
-    <row r="38" s="30" customFormat="1" spans="1:12">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+    </row>
+    <row r="38" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" s="30" customFormat="1" spans="1:12">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+    </row>
+    <row r="40" s="30" customFormat="1" spans="1:12">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" s="30" customFormat="1" spans="1:12">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-    </row>
-    <row r="47" s="31" customFormat="1" ht="66" customHeight="1" spans="1:12">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-    </row>
-    <row r="48" s="31" customFormat="1" spans="1:12">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-    </row>
-    <row r="49" s="31" customFormat="1" spans="1:12">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-    </row>
-    <row r="50" s="31" customFormat="1" spans="1:12">
-      <c r="A50" s="51"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" s="31" customFormat="1" ht="66" customHeight="1" spans="1:12">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" s="31" customFormat="1" spans="1:12">
-      <c r="A51" s="51"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" s="31" customFormat="1" spans="1:12">
-      <c r="A52" s="51"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
     </row>
     <row r="53" s="31" customFormat="1" spans="1:12">
-      <c r="A53" s="51"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
     </row>
     <row r="54" s="31" customFormat="1" spans="1:12">
-      <c r="A54" s="51"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="55" s="31" customFormat="1" spans="1:12">
-      <c r="A55" s="51"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="51"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
     </row>
     <row r="56" s="31" customFormat="1" spans="1:12">
-      <c r="A56" s="51"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="78"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" s="31" customFormat="1" spans="1:12">
-      <c r="A57" s="51"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-    </row>
-    <row r="58" s="31" customFormat="1" ht="15" spans="1:12">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
-    </row>
-    <row r="59" s="31" customFormat="1" spans="1:12">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="37"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="37"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="G61" s="68"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="37"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="37"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" s="30" customFormat="1" spans="1:12">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="37"/>
-      <c r="B65" s="66"/>
-      <c r="H65" s="68"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="37"/>
-      <c r="B66" s="66"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="37"/>
-      <c r="B67" s="66"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="37"/>
-      <c r="B68" s="66"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="37"/>
-      <c r="B69" s="66"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="37"/>
-      <c r="B70" s="66"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="66"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="37"/>
-      <c r="B72" s="66"/>
-      <c r="D72" s="67"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="37"/>
-      <c r="B73" s="66"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="37"/>
-      <c r="B74" s="66"/>
-      <c r="I74" s="67"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+    </row>
+    <row r="58" s="31" customFormat="1" spans="1:12">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+    </row>
+    <row r="59" s="31" customFormat="1" spans="1:8">
+      <c r="A59" s="48"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+    </row>
+    <row r="60" s="31" customFormat="1" spans="1:12">
+      <c r="A60" s="48"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+    </row>
+    <row r="61" s="31" customFormat="1" ht="15" spans="1:12">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+    </row>
+    <row r="62" s="31" customFormat="1" spans="1:12">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="36"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="54"/>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="36"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="G64" s="54"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="36"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="36"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+    </row>
+    <row r="67" s="30" customFormat="1" spans="1:12">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="36"/>
+      <c r="B68" s="32"/>
+      <c r="H68" s="54"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="36"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="36"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="36"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="36"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="36"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="36"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="37"/>
-      <c r="B75" s="66"/>
-      <c r="D75" s="67"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="37"/>
-      <c r="B76" s="66"/>
-      <c r="I76" s="85"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="37"/>
-      <c r="B77" s="66"/>
-      <c r="D77" s="67"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="37"/>
-      <c r="B78" s="66"/>
-    </row>
-    <row r="79" ht="267.95" customHeight="1" spans="1:4">
-      <c r="A79" s="37"/>
-      <c r="B79" s="66"/>
-      <c r="D79" s="67"/>
-    </row>
-    <row r="80" ht="63.95" customHeight="1" spans="1:4">
-      <c r="A80" s="37"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="37"/>
-      <c r="B81" s="66"/>
-      <c r="I81" s="68"/>
-    </row>
-    <row r="82" ht="54.95" customHeight="1" spans="1:10">
-      <c r="A82" s="37"/>
-      <c r="B82" s="66"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="86"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="37"/>
-      <c r="B83" s="66"/>
-      <c r="D83" s="67"/>
-      <c r="I83" s="68"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="37"/>
-      <c r="B84" s="66"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="66"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="37"/>
-      <c r="B86" s="66"/>
-      <c r="D86" s="67"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="37"/>
-      <c r="B87" s="66"/>
-      <c r="D87" s="67"/>
-    </row>
-    <row r="88" ht="72" customHeight="1" spans="1:4">
-      <c r="A88" s="37"/>
-      <c r="B88" s="66"/>
-      <c r="D88" s="67"/>
-    </row>
-    <row r="89" ht="66.95" customHeight="1" spans="1:4">
-      <c r="A89" s="37"/>
-      <c r="B89" s="66"/>
-      <c r="D89" s="67"/>
-    </row>
-    <row r="90" ht="98.1" customHeight="1" spans="1:2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="66"/>
-    </row>
-    <row r="91" ht="171.75" customHeight="1" spans="1:4">
-      <c r="A91" s="37"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-    </row>
-    <row r="92" ht="75" customHeight="1" spans="1:4">
-      <c r="A92" s="37"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-    </row>
-    <row r="93" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A93" s="37"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="H93" s="84"/>
-    </row>
-    <row r="94" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A94" s="37"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="H94" s="84"/>
-    </row>
-    <row r="95" ht="259.5" customHeight="1" spans="1:4">
-      <c r="A95" s="37"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-    </row>
-    <row r="96" ht="156" customHeight="1" spans="1:2">
-      <c r="A96" s="37"/>
-      <c r="B96" s="66"/>
-    </row>
-    <row r="97" ht="234" customHeight="1" spans="1:2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="66"/>
-    </row>
-    <row r="98" ht="165.95" customHeight="1"/>
-    <row r="99" ht="156" customHeight="1"/>
-    <row r="100" ht="111" customHeight="1"/>
-    <row r="101" ht="141" customHeight="1"/>
-    <row r="102" ht="111.75" customHeight="1"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="32"/>
+      <c r="D75" s="54"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="36"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="36"/>
+      <c r="B77" s="32"/>
+      <c r="I77" s="54"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="36"/>
+      <c r="B78" s="32"/>
+      <c r="D78" s="54"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="36"/>
+      <c r="B79" s="32"/>
+      <c r="I79" s="60"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="36"/>
+      <c r="B80" s="32"/>
+      <c r="D80" s="54"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="36"/>
+    </row>
+    <row r="82" ht="267.95" customHeight="1" spans="1:4">
+      <c r="A82" s="36"/>
+      <c r="B82" s="32"/>
+      <c r="D82" s="54"/>
+    </row>
+    <row r="83" ht="63.95" customHeight="1" spans="1:4">
+      <c r="A83" s="36"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="36"/>
+      <c r="B84" s="32"/>
+      <c r="I84" s="54"/>
+    </row>
+    <row r="85" ht="54.95" customHeight="1" spans="1:10">
+      <c r="A85" s="36"/>
+      <c r="B85" s="32"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="36"/>
+      <c r="B86" s="32"/>
+      <c r="D86" s="54"/>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="36"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="36"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="36"/>
+      <c r="B89" s="32"/>
+      <c r="D89" s="54"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="36"/>
+      <c r="B90" s="32"/>
+      <c r="D90" s="54"/>
+    </row>
+    <row r="91" ht="72" customHeight="1" spans="1:4">
+      <c r="A91" s="36"/>
+      <c r="B91" s="32"/>
+      <c r="D91" s="54"/>
+    </row>
+    <row r="92" ht="66.95" customHeight="1" spans="1:4">
+      <c r="A92" s="36"/>
+      <c r="B92" s="32"/>
+      <c r="D92" s="54"/>
+    </row>
+    <row r="93" ht="98.1" customHeight="1" spans="1:1">
+      <c r="A93" s="36"/>
+    </row>
+    <row r="94" ht="171.75" customHeight="1" spans="1:4">
+      <c r="A94" s="36"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+    </row>
+    <row r="95" ht="75" customHeight="1" spans="1:4">
+      <c r="A95" s="36"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+    </row>
+    <row r="96" ht="82.5" customHeight="1" spans="1:8">
+      <c r="A96" s="36"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="H96" s="58"/>
+    </row>
+    <row r="97" ht="82.5" customHeight="1" spans="1:8">
+      <c r="A97" s="36"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="H97" s="58"/>
+    </row>
+    <row r="98" ht="259.5" customHeight="1" spans="1:4">
+      <c r="A98" s="36"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+    </row>
+    <row r="99" ht="156" customHeight="1" spans="1:1">
+      <c r="A99" s="36"/>
+    </row>
+    <row r="100" ht="234" customHeight="1" spans="1:1">
+      <c r="A100" s="36"/>
+    </row>
+    <row r="101" ht="165.95" customHeight="1"/>
+    <row r="102" ht="156" customHeight="1"/>
+    <row r="103" ht="111" customHeight="1"/>
+    <row r="104" ht="141" customHeight="1"/>
+    <row r="105" ht="111.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:K103"/>
+  <autoFilter ref="A2:L38"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -3463,7 +3464,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -3499,22 +3500,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -3523,22 +3524,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E5" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3547,22 +3548,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3571,25 +3572,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="120.2" customHeight="1" spans="1:8">
@@ -3597,20 +3598,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3619,22 +3620,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="G9" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3668,24 +3669,24 @@
         <v>-2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J1" s="20"/>
     </row>
@@ -3695,26 +3696,26 @@
         <v>-1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J2" s="20"/>
     </row>
@@ -3724,26 +3725,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J3" s="20"/>
     </row>
@@ -3753,22 +3754,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
@@ -3780,26 +3781,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J5" s="20"/>
     </row>
@@ -3809,24 +3810,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -3843,7 +3844,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3866,7 +3867,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3912,25 +3913,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3941,22 +3942,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="11"/>
@@ -3968,22 +3969,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="11"/>
@@ -3995,22 +3996,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="11"/>
@@ -4022,22 +4023,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="11"/>
@@ -4049,22 +4050,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="11"/>
@@ -4076,22 +4077,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="11"/>
@@ -4103,22 +4104,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="11"/>
@@ -4130,20 +4131,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="11"/>
@@ -4155,20 +4156,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="11"/>
@@ -4180,20 +4181,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="11"/>
@@ -4205,20 +4206,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="11"/>
@@ -4230,20 +4231,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="11"/>
@@ -4255,20 +4256,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="11"/>
@@ -4280,20 +4281,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="11"/>
@@ -4305,20 +4306,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="11"/>
@@ -4330,22 +4331,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="11"/>
@@ -4357,22 +4358,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="11"/>
@@ -4384,22 +4385,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="11"/>
@@ -4411,20 +4412,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="11"/>
@@ -4436,22 +4437,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="11"/>

--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7380" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.接口标准" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="前台调平台接口" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">前台调平台接口!$A$3:$J$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>RESTFul URL HTTP方法分类</t>
   </si>
@@ -262,6 +262,9 @@
     <t>微信登录</t>
   </si>
   <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
     <t>头像更新</t>
   </si>
   <si>
@@ -334,7 +337,7 @@
     <t>订单详情查询</t>
   </si>
   <si>
-    <t>财务模块</t>
+    <t>钱包模块</t>
   </si>
   <si>
     <t>获取个人账户流水</t>
@@ -1070,10 +1073,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1334,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1445,6 +1448,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1885,322 +1891,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="63" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="F9" s="65" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="F9" s="66" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="66"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="66"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="67" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="64" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="64" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="64" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="64" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="64" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="63"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="67" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="63"/>
-      <c r="C31" s="66" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="63"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="67" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="63"/>
-      <c r="C33" s="66" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="67" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="63"/>
-      <c r="C34" s="66" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="67" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="63"/>
-      <c r="C37" s="66" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId3" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
-    <hyperlink ref="F9" r:id="rId4" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2213,12 +2219,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2286,9 +2292,7 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:12">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
+      <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>77</v>
       </c>
@@ -2306,9 +2310,7 @@
       <c r="L3" s="36"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:12">
-      <c r="A4" s="36">
-        <v>2</v>
-      </c>
+      <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36" t="s">
         <v>79</v>
@@ -2324,9 +2326,7 @@
       <c r="L4" s="36"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:12">
-      <c r="A5" s="36">
-        <v>3</v>
-      </c>
+      <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36" t="s">
         <v>80</v>
@@ -2342,9 +2342,7 @@
       <c r="L5" s="36"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:12">
-      <c r="A6" s="36">
-        <v>4</v>
-      </c>
+      <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
         <v>81</v>
@@ -2360,9 +2358,7 @@
       <c r="L6" s="36"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:12">
-      <c r="A7" s="36">
-        <v>5</v>
-      </c>
+      <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
         <v>82</v>
@@ -2378,9 +2374,7 @@
       <c r="L7" s="36"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:12">
-      <c r="A8" s="36">
-        <v>6</v>
-      </c>
+      <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
         <v>83</v>
@@ -2396,9 +2390,7 @@
       <c r="L8" s="36"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:12">
-      <c r="A9" s="36">
-        <v>7</v>
-      </c>
+      <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
         <v>84</v>
@@ -2414,11 +2406,9 @@
       <c r="L9" s="36"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:12">
-      <c r="A10" s="36">
-        <v>8</v>
-      </c>
+      <c r="A10" s="36"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="37"/>
@@ -2432,14 +2422,12 @@
       <c r="L10" s="36"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:12">
-      <c r="A11" s="36">
-        <v>9</v>
-      </c>
+      <c r="A11" s="36"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
@@ -2450,19 +2438,17 @@
       <c r="L11" s="36"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:12">
-      <c r="A12" s="36">
-        <v>10</v>
-      </c>
+      <c r="A12" s="36"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -2470,12 +2456,10 @@
     <row r="13" ht="30" customHeight="1" spans="1:12">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>89</v>
-      </c>
+      <c r="D13" s="37"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -2489,9 +2473,11 @@
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="37"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -2503,11 +2489,9 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:12">
       <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="36"/>
@@ -2522,9 +2506,7 @@
     <row r="16" ht="30" customHeight="1" spans="1:12">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="39" t="s">
-        <v>93</v>
-      </c>
+      <c r="C16" s="38"/>
       <c r="D16" s="37"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -2537,9 +2519,11 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:12">
       <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="C17" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="36"/>
@@ -2551,29 +2535,29 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+    <row r="18" ht="30" customHeight="1" spans="1:12">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:12">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="36"/>
+      <c r="C19" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -2583,31 +2567,29 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="36"/>
-      <c r="B20" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="36"/>
+    <row r="20" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:12">
       <c r="A21" s="36"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="45"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -2619,27 +2601,29 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:12">
       <c r="A22" s="36"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="45"/>
+      <c r="B22" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="46"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:12">
       <c r="A23" s="36"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="45"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="46"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -2651,11 +2635,11 @@
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:12">
       <c r="A24" s="36"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="45"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="46"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -2666,30 +2650,28 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:12">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="40"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="46"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:12">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="40"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="46"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -2700,12 +2682,14 @@
       <c r="L26" s="36"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:12">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="40"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="41"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
@@ -2716,10 +2700,12 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:12">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="41"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
@@ -2730,44 +2716,42 @@
       <c r="L28" s="36"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:12">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:12">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="36"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:12">
       <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="C31" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -2779,189 +2763,193 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39" t="s">
+    <row r="32" ht="30" customHeight="1" spans="1:12">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:12">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-    </row>
-    <row r="33" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="39" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+    </row>
+    <row r="34" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-    </row>
-    <row r="34" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-    </row>
-    <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="39" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-    </row>
-    <row r="36" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="39" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="37" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-    </row>
-    <row r="37" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="39" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-    </row>
-    <row r="38" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="42" t="s">
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+    </row>
+    <row r="39" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+    </row>
+    <row r="40" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-    </row>
-    <row r="39" s="30" customFormat="1" spans="1:12">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-    </row>
-    <row r="40" s="30" customFormat="1" spans="1:12">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
+      <c r="D40" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
     </row>
     <row r="41" s="30" customFormat="1" spans="1:12">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+    </row>
+    <row r="42" s="30" customFormat="1" spans="1:12">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+    </row>
+    <row r="43" s="30" customFormat="1" spans="1:12">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="36"/>
@@ -2972,10 +2960,10 @@
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="36"/>
@@ -2988,8 +2976,8 @@
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="36"/>
@@ -3002,8 +2990,8 @@
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="36"/>
@@ -3016,8 +3004,8 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="36"/>
@@ -3028,10 +3016,10 @@
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="36"/>
@@ -3044,236 +3032,247 @@
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-    </row>
-    <row r="50" s="31" customFormat="1" ht="66" customHeight="1" spans="1:12">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-    </row>
-    <row r="51" s="31" customFormat="1" spans="1:12">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-    </row>
-    <row r="52" s="31" customFormat="1" spans="1:12">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" s="31" customFormat="1" ht="66" customHeight="1" spans="1:12">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
     </row>
     <row r="53" s="31" customFormat="1" spans="1:12">
-      <c r="A53" s="48"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="50"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
     </row>
     <row r="54" s="31" customFormat="1" spans="1:12">
-      <c r="A54" s="48"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
     </row>
     <row r="55" s="31" customFormat="1" spans="1:12">
-      <c r="A55" s="48"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
+      <c r="A55" s="49"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
     </row>
     <row r="56" s="31" customFormat="1" spans="1:12">
-      <c r="A56" s="48"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
     </row>
     <row r="57" s="31" customFormat="1" spans="1:12">
-      <c r="A57" s="48"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
     </row>
     <row r="58" s="31" customFormat="1" spans="1:12">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-    </row>
-    <row r="59" s="31" customFormat="1" spans="1:8">
-      <c r="A59" s="48"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+    </row>
+    <row r="59" s="31" customFormat="1" spans="1:12">
+      <c r="A59" s="49"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
     </row>
     <row r="60" s="31" customFormat="1" spans="1:12">
-      <c r="A60" s="48"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-    </row>
-    <row r="61" s="31" customFormat="1" ht="15" spans="1:12">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+    </row>
+    <row r="61" s="31" customFormat="1" spans="1:8">
+      <c r="A61" s="49"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
     </row>
     <row r="62" s="31" customFormat="1" spans="1:12">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="36"/>
-      <c r="B63" s="32"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" s="31" customFormat="1" ht="15" spans="1:12">
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="54"/>
-      <c r="I63" s="54"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="36"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="G64" s="54"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D63" s="53"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+    </row>
+    <row r="64" s="31" customFormat="1" spans="1:12">
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="53"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="36"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="C65" s="55"/>
+      <c r="I65" s="55"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="36"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-    </row>
-    <row r="67" s="30" customFormat="1" spans="1:12">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="G66" s="55"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="36"/>
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="36"/>
-      <c r="B68" s="32"/>
-      <c r="H68" s="54"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="36"/>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" s="30" customFormat="1" spans="1:12">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="36"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="36"/>
@@ -3287,144 +3286,131 @@
     <row r="74" spans="1:1">
       <c r="A74" s="36"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:1">
       <c r="A75" s="36"/>
-      <c r="B75" s="32"/>
-      <c r="D75" s="54"/>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="36"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:4">
       <c r="A77" s="36"/>
-      <c r="B77" s="32"/>
-      <c r="I77" s="54"/>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="55"/>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="36"/>
-      <c r="B78" s="32"/>
-      <c r="D78" s="54"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="36"/>
-      <c r="B79" s="32"/>
-      <c r="I79" s="60"/>
+      <c r="I79" s="55"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="36"/>
-      <c r="B80" s="32"/>
-      <c r="D80" s="54"/>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="D80" s="55"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="36"/>
-    </row>
-    <row r="82" ht="267.95" customHeight="1" spans="1:4">
+      <c r="I81" s="61"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="36"/>
-      <c r="B82" s="32"/>
-      <c r="D82" s="54"/>
-    </row>
-    <row r="83" ht="63.95" customHeight="1" spans="1:4">
+      <c r="D82" s="55"/>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="36"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" ht="267.95" customHeight="1" spans="1:4">
       <c r="A84" s="36"/>
-      <c r="B84" s="32"/>
-      <c r="I84" s="54"/>
-    </row>
-    <row r="85" ht="54.95" customHeight="1" spans="1:10">
+      <c r="D84" s="55"/>
+    </row>
+    <row r="85" ht="63.95" customHeight="1" spans="1:4">
       <c r="A85" s="36"/>
-      <c r="B85" s="32"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="36"/>
-      <c r="B86" s="32"/>
-      <c r="D86" s="54"/>
-      <c r="I86" s="54"/>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="I86" s="55"/>
+    </row>
+    <row r="87" ht="54.95" customHeight="1" spans="1:10">
       <c r="A87" s="36"/>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="D87" s="57"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="36"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="55"/>
+      <c r="I88" s="55"/>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="36"/>
-      <c r="B89" s="32"/>
-      <c r="D89" s="54"/>
-    </row>
-    <row r="90" spans="1:4">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="36"/>
-      <c r="B90" s="32"/>
-      <c r="D90" s="54"/>
-    </row>
-    <row r="91" ht="72" customHeight="1" spans="1:4">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="36"/>
-      <c r="B91" s="32"/>
-      <c r="D91" s="54"/>
-    </row>
-    <row r="92" ht="66.95" customHeight="1" spans="1:4">
+      <c r="D91" s="55"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="36"/>
-      <c r="B92" s="32"/>
-      <c r="D92" s="54"/>
-    </row>
-    <row r="93" ht="98.1" customHeight="1" spans="1:1">
+      <c r="D92" s="55"/>
+    </row>
+    <row r="93" ht="72" customHeight="1" spans="1:4">
       <c r="A93" s="36"/>
-    </row>
-    <row r="94" ht="171.75" customHeight="1" spans="1:4">
+      <c r="D93" s="55"/>
+    </row>
+    <row r="94" ht="66.95" customHeight="1" spans="1:4">
       <c r="A94" s="36"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-    </row>
-    <row r="95" ht="75" customHeight="1" spans="1:4">
+      <c r="D94" s="55"/>
+    </row>
+    <row r="95" ht="98.1" customHeight="1" spans="1:1">
       <c r="A95" s="36"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-    </row>
-    <row r="96" ht="82.5" customHeight="1" spans="1:8">
+    </row>
+    <row r="96" ht="171.75" customHeight="1" spans="1:4">
       <c r="A96" s="36"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="54"/>
-      <c r="H96" s="58"/>
-    </row>
-    <row r="97" ht="82.5" customHeight="1" spans="1:8">
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+    </row>
+    <row r="97" ht="75" customHeight="1" spans="1:4">
       <c r="A97" s="36"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="H97" s="58"/>
-    </row>
-    <row r="98" ht="259.5" customHeight="1" spans="1:4">
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+    </row>
+    <row r="98" ht="82.5" customHeight="1" spans="1:8">
       <c r="A98" s="36"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-    </row>
-    <row r="99" ht="156" customHeight="1" spans="1:1">
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="H98" s="59"/>
+    </row>
+    <row r="99" ht="82.5" customHeight="1" spans="1:8">
       <c r="A99" s="36"/>
-    </row>
-    <row r="100" ht="234" customHeight="1" spans="1:1">
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="H99" s="59"/>
+    </row>
+    <row r="100" ht="259.5" customHeight="1" spans="1:4">
       <c r="A100" s="36"/>
-    </row>
-    <row r="101" ht="165.95" customHeight="1"/>
-    <row r="102" ht="156" customHeight="1"/>
-    <row r="103" ht="111" customHeight="1"/>
-    <row r="104" ht="141" customHeight="1"/>
-    <row r="105" ht="111.75" customHeight="1"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+    </row>
+    <row r="101" ht="156" customHeight="1" spans="1:1">
+      <c r="A101" s="36"/>
+    </row>
+    <row r="102" ht="234" customHeight="1" spans="1:1">
+      <c r="A102" s="36"/>
+    </row>
+    <row r="103" ht="165.95" customHeight="1"/>
+    <row r="104" ht="156" customHeight="1"/>
+    <row r="105" ht="111" customHeight="1"/>
+    <row r="106" ht="141" customHeight="1"/>
+    <row r="107" ht="111.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:L38"/>
+  <autoFilter ref="A2:L40"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -3464,7 +3450,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -3500,22 +3486,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -3524,22 +3510,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3548,22 +3534,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3572,25 +3558,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="120.2" customHeight="1" spans="1:8">
@@ -3598,20 +3584,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3620,22 +3606,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3669,24 +3655,24 @@
         <v>-2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J1" s="20"/>
     </row>
@@ -3696,26 +3682,26 @@
         <v>-1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J2" s="20"/>
     </row>
@@ -3725,26 +3711,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J3" s="20"/>
     </row>
@@ -3754,22 +3740,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
@@ -3781,26 +3767,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J5" s="20"/>
     </row>
@@ -3810,24 +3796,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -3867,7 +3853,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3913,25 +3899,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3942,22 +3928,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="11"/>
@@ -3969,22 +3955,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="11"/>
@@ -3996,22 +3982,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="11"/>
@@ -4023,22 +4009,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="11"/>
@@ -4050,22 +4036,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="11"/>
@@ -4077,22 +4063,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="11"/>
@@ -4104,22 +4090,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="11"/>
@@ -4131,20 +4117,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="11"/>
@@ -4156,20 +4142,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="11"/>
@@ -4181,20 +4167,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="11"/>
@@ -4206,20 +4192,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="11"/>
@@ -4231,20 +4217,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="11"/>
@@ -4256,20 +4242,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="11"/>
@@ -4281,20 +4267,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="11"/>
@@ -4306,20 +4292,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="11"/>
@@ -4331,22 +4317,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="11"/>
@@ -4358,22 +4344,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="11"/>
@@ -4385,22 +4371,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="11"/>
@@ -4412,20 +4398,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="11"/>
@@ -4437,22 +4423,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="11"/>

--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -1073,12 +1073,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1140,6 +1140,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="46"/>
+      <name val="Heiti SC Light"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="46"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1337,7 +1350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1429,6 +1442,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,10 +1469,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,22 +1481,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,13 +1538,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1891,322 +1916,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="68" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="F9" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="68" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="64"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64" t="s">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="68" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="68" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="64"/>
-      <c r="C28" s="64" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="64"/>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="71" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="64"/>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="71" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="64"/>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="71" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="64"/>
-      <c r="C33" s="67" t="s">
+      <c r="B33" s="68"/>
+      <c r="C33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="64"/>
-      <c r="C34" s="67" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="68" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="64"/>
-      <c r="C36" s="64" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="68" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="64"/>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId3" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2222,1187 +2247,1187 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="13.0952380952381" style="32" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" style="32" customWidth="1"/>
-    <col min="4" max="4" width="22.1809523809524" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.8571428571429" style="32" customWidth="1"/>
-    <col min="6" max="6" width="47.3904761904762" style="32" customWidth="1"/>
-    <col min="7" max="7" width="15.9619047619048" style="32" customWidth="1"/>
-    <col min="8" max="8" width="46.2857142857143" style="32" customWidth="1"/>
-    <col min="9" max="9" width="33.4285714285714" style="32" customWidth="1"/>
-    <col min="10" max="10" width="30.7142857142857" style="32" customWidth="1"/>
-    <col min="11" max="12" width="9.14285714285714" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="32"/>
+    <col min="1" max="2" width="13.0952380952381" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.8571428571429" style="33" customWidth="1"/>
+    <col min="4" max="4" width="22.1809523809524" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.8571428571429" style="33" customWidth="1"/>
+    <col min="6" max="6" width="47.3904761904762" style="33" customWidth="1"/>
+    <col min="7" max="7" width="15.9619047619048" style="33" customWidth="1"/>
+    <col min="8" max="8" width="46.2857142857143" style="33" customWidth="1"/>
+    <col min="9" max="9" width="33.4285714285714" style="33" customWidth="1"/>
+    <col min="10" max="10" width="30.7142857142857" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.14285714285714" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="37.7" customHeight="1" spans="1:12">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:12">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:12">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:12">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:12">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:12">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:12">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:12">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:12">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:12">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:12">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:12">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:12">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:12">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:12">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:12">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:12">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:12">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:12">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:12">
-      <c r="A22" s="36"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:12">
-      <c r="A23" s="36"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:12">
-      <c r="A24" s="36"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:12">
-      <c r="A25" s="36"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:12">
-      <c r="A26" s="36"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:12">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:12">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="45" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:12">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="45" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:12">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:12">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:12">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:12">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="40" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="40" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="40" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="40" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-    </row>
-    <row r="39" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="40" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+    </row>
+    <row r="39" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-    </row>
-    <row r="40" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="43" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" s="30" customFormat="1" spans="1:12">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" s="30" customFormat="1" spans="1:12">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
     </row>
     <row r="43" s="30" customFormat="1" spans="1:12">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-    </row>
-    <row r="52" s="31" customFormat="1" ht="66" customHeight="1" spans="1:12">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-    </row>
-    <row r="53" s="31" customFormat="1" spans="1:12">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-    </row>
-    <row r="54" s="31" customFormat="1" spans="1:12">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-    </row>
-    <row r="55" s="31" customFormat="1" spans="1:12">
-      <c r="A55" s="49"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-    </row>
-    <row r="56" s="31" customFormat="1" spans="1:12">
-      <c r="A56" s="49"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-    </row>
-    <row r="57" s="31" customFormat="1" spans="1:12">
-      <c r="A57" s="49"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-    </row>
-    <row r="58" s="31" customFormat="1" spans="1:12">
-      <c r="A58" s="49"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-    </row>
-    <row r="59" s="31" customFormat="1" spans="1:12">
-      <c r="A59" s="49"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-    </row>
-    <row r="60" s="31" customFormat="1" spans="1:12">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-    </row>
-    <row r="61" s="31" customFormat="1" spans="1:8">
-      <c r="A61" s="49"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-    </row>
-    <row r="62" s="31" customFormat="1" spans="1:12">
-      <c r="A62" s="49"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-    </row>
-    <row r="63" s="31" customFormat="1" ht="15" spans="1:12">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="53"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-    </row>
-    <row r="64" s="31" customFormat="1" spans="1:12">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="53"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+    </row>
+    <row r="52" s="32" customFormat="1" ht="66" customHeight="1" spans="1:12">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+    </row>
+    <row r="53" s="32" customFormat="1" spans="1:12">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+    </row>
+    <row r="54" s="32" customFormat="1" spans="1:12">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+    </row>
+    <row r="55" s="32" customFormat="1" spans="1:12">
+      <c r="A55" s="53"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+    </row>
+    <row r="56" s="32" customFormat="1" spans="1:12">
+      <c r="A56" s="53"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+    </row>
+    <row r="57" s="32" customFormat="1" spans="1:12">
+      <c r="A57" s="53"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+    </row>
+    <row r="58" s="32" customFormat="1" spans="1:12">
+      <c r="A58" s="53"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+    </row>
+    <row r="59" s="32" customFormat="1" spans="1:12">
+      <c r="A59" s="53"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+    </row>
+    <row r="60" s="32" customFormat="1" spans="1:12">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+    </row>
+    <row r="61" s="32" customFormat="1" spans="1:8">
+      <c r="A61" s="53"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" s="32" customFormat="1" spans="1:12">
+      <c r="A62" s="53"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+    </row>
+    <row r="63" s="32" customFormat="1" ht="15" spans="1:12">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="57"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+    </row>
+    <row r="64" s="32" customFormat="1" spans="1:12">
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="57"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="36"/>
-      <c r="C65" s="55"/>
-      <c r="I65" s="55"/>
+      <c r="A65" s="37"/>
+      <c r="C65" s="59"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="36"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="G66" s="55"/>
+      <c r="A66" s="37"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="G66" s="59"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="36"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
+      <c r="A67" s="37"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="36"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
+      <c r="A68" s="37"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
     </row>
     <row r="69" s="30" customFormat="1" spans="1:12">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="36"/>
-      <c r="H70" s="55"/>
+      <c r="A70" s="37"/>
+      <c r="H70" s="59"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="36"/>
+      <c r="A71" s="37"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="36"/>
+      <c r="A72" s="37"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="36"/>
+      <c r="A73" s="37"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="36"/>
+      <c r="A74" s="37"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="36"/>
+      <c r="A75" s="37"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="36"/>
+      <c r="A76" s="37"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="36"/>
-      <c r="D77" s="55"/>
+      <c r="A77" s="37"/>
+      <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="36"/>
+      <c r="A78" s="37"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="36"/>
-      <c r="I79" s="55"/>
+      <c r="A79" s="37"/>
+      <c r="I79" s="59"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="36"/>
-      <c r="D80" s="55"/>
+      <c r="A80" s="37"/>
+      <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="36"/>
-      <c r="I81" s="61"/>
+      <c r="A81" s="37"/>
+      <c r="I81" s="65"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="36"/>
-      <c r="D82" s="55"/>
+      <c r="A82" s="37"/>
+      <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="36"/>
+      <c r="A83" s="37"/>
     </row>
     <row r="84" ht="267.95" customHeight="1" spans="1:4">
-      <c r="A84" s="36"/>
-      <c r="D84" s="55"/>
+      <c r="A84" s="37"/>
+      <c r="D84" s="59"/>
     </row>
     <row r="85" ht="63.95" customHeight="1" spans="1:4">
-      <c r="A85" s="36"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
+      <c r="A85" s="37"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="36"/>
-      <c r="I86" s="55"/>
+      <c r="A86" s="37"/>
+      <c r="I86" s="59"/>
     </row>
     <row r="87" ht="54.95" customHeight="1" spans="1:10">
-      <c r="A87" s="36"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="58"/>
+      <c r="A87" s="37"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="62"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="36"/>
-      <c r="D88" s="55"/>
-      <c r="I88" s="55"/>
+      <c r="A88" s="37"/>
+      <c r="D88" s="59"/>
+      <c r="I88" s="59"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="36"/>
+      <c r="A89" s="37"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="36"/>
+      <c r="A90" s="37"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="36"/>
-      <c r="D91" s="55"/>
+      <c r="A91" s="37"/>
+      <c r="D91" s="59"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="36"/>
-      <c r="D92" s="55"/>
+      <c r="A92" s="37"/>
+      <c r="D92" s="59"/>
     </row>
     <row r="93" ht="72" customHeight="1" spans="1:4">
-      <c r="A93" s="36"/>
-      <c r="D93" s="55"/>
+      <c r="A93" s="37"/>
+      <c r="D93" s="59"/>
     </row>
     <row r="94" ht="66.95" customHeight="1" spans="1:4">
-      <c r="A94" s="36"/>
-      <c r="D94" s="55"/>
+      <c r="A94" s="37"/>
+      <c r="D94" s="59"/>
     </row>
     <row r="95" ht="98.1" customHeight="1" spans="1:1">
-      <c r="A95" s="36"/>
+      <c r="A95" s="37"/>
     </row>
     <row r="96" ht="171.75" customHeight="1" spans="1:4">
-      <c r="A96" s="36"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
+      <c r="A96" s="37"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
     </row>
     <row r="97" ht="75" customHeight="1" spans="1:4">
-      <c r="A97" s="36"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
+      <c r="A97" s="37"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
     </row>
     <row r="98" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A98" s="36"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="H98" s="59"/>
+      <c r="A98" s="37"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="H98" s="63"/>
     </row>
     <row r="99" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A99" s="36"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="H99" s="59"/>
+      <c r="A99" s="37"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="H99" s="63"/>
     </row>
     <row r="100" ht="259.5" customHeight="1" spans="1:4">
-      <c r="A100" s="36"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
+      <c r="A100" s="37"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
     </row>
     <row r="101" ht="156" customHeight="1" spans="1:1">
-      <c r="A101" s="36"/>
+      <c r="A101" s="37"/>
     </row>
     <row r="102" ht="234" customHeight="1" spans="1:1">
-      <c r="A102" s="36"/>
+      <c r="A102" s="37"/>
     </row>
     <row r="103" ht="165.95" customHeight="1"/>
     <row r="104" ht="156" customHeight="1"/>

--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -1073,10 +1073,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -2230,8 +2230,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId3" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
-    <hyperlink ref="F9" r:id="rId4" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2247,9 +2247,9 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.接口标准" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="前台调平台接口" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">前台调平台接口!$A$3:$J$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
   <si>
     <t>RESTFul URL HTTP方法分类</t>
   </si>
@@ -355,6 +355,9 @@
     <t>商户登录</t>
   </si>
   <si>
+    <t>增加商户</t>
+  </si>
+  <si>
     <t>商户名称更新</t>
   </si>
   <si>
@@ -365,6 +368,9 @@
   </si>
   <si>
     <t>获取员工列表</t>
+  </si>
+  <si>
+    <t>分为自由员工和管理员添加的固定员工</t>
   </si>
   <si>
     <t>员工信息查询</t>
@@ -1073,12 +1079,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1143,6 +1149,13 @@
       <color indexed="46"/>
       <name val="Heiti SC Light"/>
       <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="46"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1350,7 +1363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1466,13 +1479,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,31 +1500,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,13 +1560,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1916,317 +1938,317 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="71" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="F9" s="70" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="F9" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="71" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="71" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="71" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="71" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="71" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="71" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="68"/>
-      <c r="C27" s="68" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="68"/>
-      <c r="C28" s="68" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="68"/>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="74" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="68"/>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="71"/>
+      <c r="C31" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="74" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="68"/>
-      <c r="C32" s="71" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="74" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="68"/>
-      <c r="C33" s="71" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="68"/>
-      <c r="C34" s="71" t="s">
+      <c r="B34" s="71"/>
+      <c r="C34" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="74" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68" t="s">
+      <c r="B35" s="71"/>
+      <c r="C35" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="71" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="68"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="71"/>
+      <c r="C36" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="68"/>
-      <c r="C37" s="71" t="s">
+      <c r="B37" s="71"/>
+      <c r="C37" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="74" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2244,12 +2266,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2449,7 +2471,7 @@
     <row r="11" ht="30" customHeight="1" spans="1:12">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="39" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="38"/>
@@ -2465,7 +2487,7 @@
     <row r="12" ht="30" customHeight="1" spans="1:12">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="37"/>
@@ -2531,7 +2553,7 @@
     <row r="16" ht="30" customHeight="1" spans="1:12">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="38"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -2547,7 +2569,7 @@
       <c r="B17" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="38"/>
@@ -2563,7 +2585,7 @@
     <row r="18" ht="30" customHeight="1" spans="1:12">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="43" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="38"/>
@@ -2579,7 +2601,7 @@
     <row r="19" ht="30" customHeight="1" spans="1:12">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="43" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="38"/>
@@ -2593,25 +2615,25 @@
       <c r="L19" s="37"/>
     </row>
     <row r="20" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:12">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="46" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="37"/>
@@ -2626,29 +2648,29 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:12">
       <c r="A22" s="37"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="54"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:12">
       <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -2660,11 +2682,11 @@
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:12">
       <c r="A24" s="37"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -2676,11 +2698,11 @@
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:12">
       <c r="A25" s="37"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -2692,11 +2714,11 @@
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:12">
       <c r="A26" s="37"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -2707,14 +2729,14 @@
       <c r="L26" s="37"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:12">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -2725,12 +2747,12 @@
       <c r="L27" s="37"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:12">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="46" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -2741,12 +2763,12 @@
       <c r="L28" s="37"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:12">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="46" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -2757,10 +2779,10 @@
       <c r="L29" s="37"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:12">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -2775,7 +2797,7 @@
       <c r="B31" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="42" t="s">
         <v>109</v>
       </c>
       <c r="D31" s="37"/>
@@ -2791,7 +2813,7 @@
     <row r="32" ht="30" customHeight="1" spans="1:12">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="37"/>
@@ -2807,7 +2829,7 @@
     <row r="33" ht="30" customHeight="1" spans="1:12">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="43" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="37"/>
@@ -2820,175 +2842,179 @@
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="41" t="s">
+    <row r="34" ht="30" customHeight="1" spans="1:12">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="41" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
     </row>
     <row r="36" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="41" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="D36" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-    </row>
-    <row r="39" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+    </row>
+    <row r="39" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
     </row>
     <row r="40" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="50" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-    </row>
-    <row r="41" s="30" customFormat="1" spans="1:12">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+    </row>
+    <row r="41" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" s="30" customFormat="1" spans="1:12">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="43" s="30" customFormat="1" spans="1:12">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+    </row>
+    <row r="44" s="30" customFormat="1" spans="1:12">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="37"/>
@@ -2999,10 +3025,10 @@
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="37"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="37"/>
@@ -3015,8 +3041,8 @@
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="37"/>
@@ -3029,8 +3055,8 @@
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="37"/>
@@ -3043,8 +3069,8 @@
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="37"/>
@@ -3057,8 +3083,8 @@
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="37"/>
@@ -3069,10 +3095,10 @@
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="38"/>
+      <c r="I50" s="37"/>
       <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="37"/>
@@ -3083,224 +3109,235 @@
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
+      <c r="I51" s="38"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
     </row>
-    <row r="52" s="32" customFormat="1" ht="66" customHeight="1" spans="1:12">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-    </row>
-    <row r="53" s="32" customFormat="1" spans="1:12">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
+    <row r="52" spans="1:12">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+    </row>
+    <row r="53" s="32" customFormat="1" ht="66" customHeight="1" spans="1:12">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
     </row>
     <row r="54" s="32" customFormat="1" spans="1:12">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
     </row>
     <row r="55" s="32" customFormat="1" spans="1:12">
-      <c r="A55" s="53"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
       <c r="I55" s="56"/>
       <c r="J55" s="56"/>
       <c r="K55" s="56"/>
       <c r="L55" s="56"/>
     </row>
     <row r="56" s="32" customFormat="1" spans="1:12">
-      <c r="A56" s="53"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
+      <c r="A56" s="56"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="57"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
     </row>
     <row r="57" s="32" customFormat="1" spans="1:12">
-      <c r="A57" s="53"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
     </row>
     <row r="58" s="32" customFormat="1" spans="1:12">
-      <c r="A58" s="53"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="53"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="56"/>
       <c r="F58" s="56"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
     </row>
     <row r="59" s="32" customFormat="1" spans="1:12">
-      <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
     </row>
     <row r="60" s="32" customFormat="1" spans="1:12">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-    </row>
-    <row r="61" s="32" customFormat="1" spans="1:8">
-      <c r="A61" s="53"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-    </row>
-    <row r="62" s="32" customFormat="1" spans="1:12">
-      <c r="A62" s="53"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-    </row>
-    <row r="63" s="32" customFormat="1" ht="15" spans="1:12">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="57"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-    </row>
-    <row r="64" s="32" customFormat="1" spans="1:12">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="57"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="37"/>
-      <c r="C65" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+    </row>
+    <row r="61" s="32" customFormat="1" spans="1:12">
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+    </row>
+    <row r="62" s="32" customFormat="1" spans="1:8">
+      <c r="A62" s="56"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+    </row>
+    <row r="63" s="32" customFormat="1" spans="1:12">
+      <c r="A63" s="56"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+    </row>
+    <row r="64" s="32" customFormat="1" ht="15" spans="1:12">
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="60"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+    </row>
+    <row r="65" s="32" customFormat="1" spans="1:12">
+      <c r="A65" s="56"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
       <c r="I65" s="59"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="37"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="G66" s="59"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="C66" s="62"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="37"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="G67" s="62"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="37"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-    </row>
-    <row r="69" s="30" customFormat="1" spans="1:12">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="37"/>
-      <c r="H70" s="59"/>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="37"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+    </row>
+    <row r="70" s="30" customFormat="1" spans="1:12">
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="37"/>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="37"/>
@@ -3317,127 +3354,131 @@
     <row r="76" spans="1:1">
       <c r="A76" s="37"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:1">
       <c r="A77" s="37"/>
-      <c r="D77" s="59"/>
-    </row>
-    <row r="78" spans="1:1">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="37"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="D78" s="62"/>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="37"/>
-      <c r="I79" s="59"/>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="37"/>
-      <c r="D80" s="59"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="62"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="37"/>
-      <c r="I81" s="65"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81" s="62"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="37"/>
-      <c r="D82" s="59"/>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="I82" s="68"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="37"/>
-    </row>
-    <row r="84" ht="267.95" customHeight="1" spans="1:4">
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="37"/>
-      <c r="D84" s="59"/>
-    </row>
-    <row r="85" ht="63.95" customHeight="1" spans="1:4">
+    </row>
+    <row r="85" ht="267.95" customHeight="1" spans="1:4">
       <c r="A85" s="37"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="D85" s="62"/>
+    </row>
+    <row r="86" ht="63.95" customHeight="1" spans="1:4">
       <c r="A86" s="37"/>
-      <c r="I86" s="59"/>
-    </row>
-    <row r="87" ht="54.95" customHeight="1" spans="1:10">
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="37"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="62"/>
+    </row>
+    <row r="88" ht="54.95" customHeight="1" spans="1:10">
       <c r="A88" s="37"/>
-      <c r="D88" s="59"/>
-      <c r="I88" s="59"/>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="D88" s="64"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="65"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="37"/>
+      <c r="D89" s="62"/>
+      <c r="I89" s="62"/>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="37"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:1">
       <c r="A91" s="37"/>
-      <c r="D91" s="59"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="37"/>
-      <c r="D92" s="59"/>
-    </row>
-    <row r="93" ht="72" customHeight="1" spans="1:4">
+      <c r="D92" s="62"/>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="37"/>
-      <c r="D93" s="59"/>
-    </row>
-    <row r="94" ht="66.95" customHeight="1" spans="1:4">
+      <c r="D93" s="62"/>
+    </row>
+    <row r="94" ht="72" customHeight="1" spans="1:4">
       <c r="A94" s="37"/>
-      <c r="D94" s="59"/>
-    </row>
-    <row r="95" ht="98.1" customHeight="1" spans="1:1">
+      <c r="D94" s="62"/>
+    </row>
+    <row r="95" ht="66.95" customHeight="1" spans="1:4">
       <c r="A95" s="37"/>
-    </row>
-    <row r="96" ht="171.75" customHeight="1" spans="1:4">
+      <c r="D95" s="62"/>
+    </row>
+    <row r="96" ht="98.1" customHeight="1" spans="1:1">
       <c r="A96" s="37"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-    </row>
-    <row r="97" ht="75" customHeight="1" spans="1:4">
+    </row>
+    <row r="97" ht="171.75" customHeight="1" spans="1:4">
       <c r="A97" s="37"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-    </row>
-    <row r="98" ht="82.5" customHeight="1" spans="1:8">
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+    </row>
+    <row r="98" ht="75" customHeight="1" spans="1:4">
       <c r="A98" s="37"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="H98" s="63"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
     </row>
     <row r="99" ht="82.5" customHeight="1" spans="1:8">
       <c r="A99" s="37"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="H99" s="63"/>
-    </row>
-    <row r="100" ht="259.5" customHeight="1" spans="1:4">
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="H99" s="66"/>
+    </row>
+    <row r="100" ht="82.5" customHeight="1" spans="1:8">
       <c r="A100" s="37"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
-    </row>
-    <row r="101" ht="156" customHeight="1" spans="1:1">
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="H100" s="66"/>
+    </row>
+    <row r="101" ht="259.5" customHeight="1" spans="1:4">
       <c r="A101" s="37"/>
-    </row>
-    <row r="102" ht="234" customHeight="1" spans="1:1">
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+    </row>
+    <row r="102" ht="156" customHeight="1" spans="1:1">
       <c r="A102" s="37"/>
     </row>
-    <row r="103" ht="165.95" customHeight="1"/>
-    <row r="104" ht="156" customHeight="1"/>
-    <row r="105" ht="111" customHeight="1"/>
-    <row r="106" ht="141" customHeight="1"/>
-    <row r="107" ht="111.75" customHeight="1"/>
+    <row r="103" ht="234" customHeight="1" spans="1:1">
+      <c r="A103" s="37"/>
+    </row>
+    <row r="104" ht="165.95" customHeight="1"/>
+    <row r="105" ht="156" customHeight="1"/>
+    <row r="106" ht="111" customHeight="1"/>
+    <row r="107" ht="141" customHeight="1"/>
+    <row r="108" ht="111.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:L40"/>
-  <mergeCells count="1">
+  <autoFilter ref="A2:L41"/>
+  <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D36:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="http://121.40.104.203:8888/rest/" tooltip="http://121.40.104.203:8888/rest/"/>
@@ -3475,7 +3516,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -3511,22 +3552,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -3535,22 +3576,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3559,22 +3600,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3583,25 +3624,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="120.2" customHeight="1" spans="1:8">
@@ -3609,20 +3650,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3631,22 +3672,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3680,24 +3721,24 @@
         <v>-2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J1" s="20"/>
     </row>
@@ -3707,26 +3748,26 @@
         <v>-1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J2" s="20"/>
     </row>
@@ -3736,26 +3777,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>153</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" s="20"/>
     </row>
@@ -3765,22 +3806,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
@@ -3792,26 +3833,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J5" s="20"/>
     </row>
@@ -3821,24 +3862,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -3878,7 +3919,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3924,25 +3965,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3953,22 +3994,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="11"/>
@@ -3980,22 +4021,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="11"/>
@@ -4007,22 +4048,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="11"/>
@@ -4034,22 +4075,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="11"/>
@@ -4061,22 +4102,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="11"/>
@@ -4088,22 +4129,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="11"/>
@@ -4115,22 +4156,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="11"/>
@@ -4142,20 +4183,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="11"/>
@@ -4167,20 +4208,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="11"/>
@@ -4192,20 +4233,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="11"/>
@@ -4217,20 +4258,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="11"/>
@@ -4242,20 +4283,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="11"/>
@@ -4267,20 +4308,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="11"/>
@@ -4292,20 +4333,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="11"/>
@@ -4317,20 +4358,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="11"/>
@@ -4342,22 +4383,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="11"/>
@@ -4369,22 +4410,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="11"/>
@@ -4396,22 +4437,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="11"/>
@@ -4423,20 +4464,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="11"/>
@@ -4448,22 +4489,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="11"/>

--- a/Doc/Yuyue接口文档（商户）.xlsx
+++ b/Doc/Yuyue接口文档（商户）.xlsx
@@ -14,7 +14,7 @@
     <sheet name="前台调平台接口" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">家电平台子系统接口!$A$2:$L$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">前台调平台接口!$A$3:$J$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261">
   <si>
     <t>RESTFul URL HTTP方法分类</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>个人简介更新</t>
+  </si>
+  <si>
+    <t>照片墙（10张）</t>
   </si>
   <si>
     <t>联系方式更新</t>
@@ -2252,8 +2255,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId3" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://www.jdon.com/soa/10-best-practices-for-better-restful-api.html"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://www.ruanyifeng.com/blog/2014/05/restful_api.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2266,19 +2269,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.0952380952381" style="33" customWidth="1"/>
     <col min="3" max="3" width="18.8571428571429" style="33" customWidth="1"/>
-    <col min="4" max="4" width="22.1809523809524" style="33" customWidth="1"/>
+    <col min="4" max="4" width="28.4" style="33" customWidth="1"/>
     <col min="5" max="5" width="15.8571428571429" style="33" customWidth="1"/>
     <col min="6" max="6" width="47.3904761904762" style="33" customWidth="1"/>
     <col min="7" max="7" width="15.9619047619048" style="33" customWidth="1"/>
@@ -2471,7 +2474,7 @@
     <row r="11" ht="30" customHeight="1" spans="1:12">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="38"/>
@@ -2487,10 +2490,10 @@
     <row r="12" ht="30" customHeight="1" spans="1:12">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -2503,15 +2506,15 @@
     <row r="13" ht="30" customHeight="1" spans="1:12">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
@@ -2519,12 +2522,10 @@
     <row r="14" ht="30" customHeight="1" spans="1:12">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="D14" s="38"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -2538,9 +2539,11 @@
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="38"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -2553,7 +2556,9 @@
     <row r="16" ht="30" customHeight="1" spans="1:12">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="D16" s="38"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -2566,12 +2571,8 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:12">
       <c r="A17" s="37"/>
-      <c r="B17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="38"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -2584,8 +2585,10 @@
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:12">
       <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="38"/>
@@ -2614,59 +2617,59 @@
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+    <row r="20" ht="30" customHeight="1" spans="1:12">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:12">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="46" t="s">
+    <row r="21" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:12">
       <c r="A22" s="37"/>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:12">
       <c r="A23" s="37"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="C23" s="48" t="s">
         <v>100</v>
       </c>
@@ -2675,7 +2678,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -2691,7 +2694,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -2707,7 +2710,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -2723,20 +2726,18 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:12">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -2748,8 +2749,10 @@
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:12">
       <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="51" t="s">
+      <c r="B28" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="50" t="s">
         <v>106</v>
       </c>
       <c r="D28" s="44"/>
@@ -2765,7 +2768,7 @@
     <row r="29" ht="30" customHeight="1" spans="1:12">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="44"/>
@@ -2781,7 +2784,9 @@
     <row r="30" ht="30" customHeight="1" spans="1:12">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="52"/>
+      <c r="C30" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="D30" s="44"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -2793,26 +2798,24 @@
       <c r="L30" s="37"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:12">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="37"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:12">
       <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+      <c r="B32" s="37" t="s">
+        <v>109</v>
+      </c>
       <c r="C32" s="42" t="s">
         <v>110</v>
       </c>
@@ -2829,7 +2832,7 @@
     <row r="33" ht="30" customHeight="1" spans="1:12">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="37"/>
@@ -2858,21 +2861,21 @@
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+    <row r="35" ht="30" customHeight="1" spans="1:12">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
     </row>
     <row r="36" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A36" s="44"/>
@@ -2880,14 +2883,12 @@
       <c r="C36" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>115</v>
-      </c>
+      <c r="D36" s="44"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
@@ -2896,9 +2897,11 @@
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="44"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
@@ -2919,7 +2922,7 @@
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="44"/>
       <c r="K38" s="44"/>
       <c r="L38" s="44"/>
@@ -2940,31 +2943,29 @@
       <c r="K39" s="44"/>
       <c r="L39" s="44"/>
     </row>
-    <row r="40" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54" t="s">
+    <row r="40" s="30" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A41" s="53"/>
       <c r="B41" s="53"/>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="53" t="s">
-        <v>121</v>
-      </c>
+      <c r="D41" s="53"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
@@ -2974,19 +2975,23 @@
       <c r="K41" s="53"/>
       <c r="L41" s="53"/>
     </row>
-    <row r="42" s="30" customFormat="1" spans="1:12">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+    <row r="42" s="31" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" s="30" customFormat="1" spans="1:12">
       <c r="A43" s="44"/>
@@ -3016,17 +3021,17 @@
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="37"/>
+    <row r="45" s="30" customFormat="1" spans="1:12">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="44"/>
       <c r="L45" s="44"/>
     </row>
@@ -3039,7 +3044,7 @@
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="I46" s="38"/>
       <c r="J46" s="37"/>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -3109,10 +3114,10 @@
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="38"/>
+      <c r="I51" s="37"/>
       <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="37"/>
@@ -3123,26 +3128,26 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
+      <c r="I52" s="38"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
     </row>
-    <row r="53" s="32" customFormat="1" ht="66" customHeight="1" spans="1:12">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-    </row>
-    <row r="54" s="32" customFormat="1" spans="1:12">
+    <row r="53" spans="1:12">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+    </row>
+    <row r="54" s="32" customFormat="1" ht="66" customHeight="1" spans="1:12">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="57"/>
@@ -3172,22 +3177,22 @@
     </row>
     <row r="56" s="32" customFormat="1" spans="1:12">
       <c r="A56" s="56"/>
-      <c r="C56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="57"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
     </row>
     <row r="57" s="32" customFormat="1" spans="1:12">
       <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
@@ -3217,7 +3222,7 @@
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="56"/>
-      <c r="F59" s="59"/>
+      <c r="F59" s="56"/>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
       <c r="I59" s="59"/>
@@ -3241,10 +3246,10 @@
     </row>
     <row r="61" s="32" customFormat="1" spans="1:12">
       <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="57"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="60"/>
-      <c r="E61" s="59"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="59"/>
       <c r="G61" s="56"/>
       <c r="H61" s="56"/>
@@ -3253,31 +3258,32 @@
       <c r="K61" s="59"/>
       <c r="L61" s="59"/>
     </row>
-    <row r="62" s="32" customFormat="1" spans="1:8">
+    <row r="62" s="32" customFormat="1" spans="1:12">
       <c r="A62" s="56"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="59"/>
       <c r="F62" s="59"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
-    </row>
-    <row r="63" s="32" customFormat="1" spans="1:12">
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+    </row>
+    <row r="63" s="32" customFormat="1" spans="1:8">
       <c r="A63" s="56"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
       <c r="F63" s="59"/>
       <c r="G63" s="56"/>
       <c r="H63" s="56"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-    </row>
-    <row r="64" s="32" customFormat="1" ht="15" spans="1:12">
+    </row>
+    <row r="64" s="32" customFormat="1" spans="1:12">
       <c r="A64" s="56"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="61"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="60"/>
       <c r="F64" s="59"/>
       <c r="G64" s="56"/>
@@ -3287,10 +3293,10 @@
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
     </row>
-    <row r="65" s="32" customFormat="1" spans="1:12">
+    <row r="65" s="32" customFormat="1" ht="15" spans="1:12">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="60"/>
       <c r="F65" s="59"/>
       <c r="G65" s="56"/>
@@ -3300,47 +3306,57 @@
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="37"/>
-      <c r="C66" s="62"/>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="1:7">
+    <row r="66" s="32" customFormat="1" spans="1:12">
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="60"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="37"/>
       <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="G67" s="62"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="37"/>
       <c r="C68" s="62"/>
       <c r="D68" s="62"/>
+      <c r="G68" s="62"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="37"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
     </row>
-    <row r="70" s="30" customFormat="1" spans="1:12">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="37"/>
-      <c r="H71" s="62"/>
-    </row>
-    <row r="72" spans="1:1">
+    <row r="70" spans="1:4">
+      <c r="A70" s="37"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+    </row>
+    <row r="71" s="30" customFormat="1" spans="1:12">
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="37"/>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="37"/>
@@ -3357,100 +3373,97 @@
     <row r="77" spans="1:1">
       <c r="A77" s="37"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:1">
       <c r="A78" s="37"/>
-      <c r="D78" s="62"/>
-    </row>
-    <row r="79" spans="1:1">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="37"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="D79" s="62"/>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="37"/>
-      <c r="I80" s="62"/>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="37"/>
-      <c r="D81" s="62"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="62"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="37"/>
-      <c r="I82" s="68"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="62"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="37"/>
-      <c r="D83" s="62"/>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="I83" s="68"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="37"/>
-    </row>
-    <row r="85" ht="267.95" customHeight="1" spans="1:4">
+      <c r="D84" s="62"/>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="37"/>
-      <c r="D85" s="62"/>
-    </row>
-    <row r="86" ht="63.95" customHeight="1" spans="1:4">
+    </row>
+    <row r="86" ht="267.95" customHeight="1" spans="1:4">
       <c r="A86" s="37"/>
-      <c r="C86" s="62"/>
       <c r="D86" s="62"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" ht="63.95" customHeight="1" spans="1:4">
       <c r="A87" s="37"/>
-      <c r="I87" s="62"/>
-    </row>
-    <row r="88" ht="54.95" customHeight="1" spans="1:10">
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="37"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="65"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" s="62"/>
+    </row>
+    <row r="89" ht="54.95" customHeight="1" spans="1:10">
       <c r="A89" s="37"/>
-      <c r="D89" s="62"/>
-      <c r="I89" s="62"/>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="D89" s="64"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="65"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="37"/>
+      <c r="D90" s="62"/>
+      <c r="I90" s="62"/>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="37"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:1">
       <c r="A92" s="37"/>
-      <c r="D92" s="62"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="37"/>
       <c r="D93" s="62"/>
     </row>
-    <row r="94" ht="72" customHeight="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94" s="37"/>
       <c r="D94" s="62"/>
     </row>
-    <row r="95" ht="66.95" customHeight="1" spans="1:4">
+    <row r="95" ht="72" customHeight="1" spans="1:4">
       <c r="A95" s="37"/>
       <c r="D95" s="62"/>
     </row>
-    <row r="96" ht="98.1" customHeight="1" spans="1:1">
+    <row r="96" ht="66.95" customHeight="1" spans="1:4">
       <c r="A96" s="37"/>
-    </row>
-    <row r="97" ht="171.75" customHeight="1" spans="1:4">
+      <c r="D96" s="62"/>
+    </row>
+    <row r="97" ht="98.1" customHeight="1" spans="1:1">
       <c r="A97" s="37"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-    </row>
-    <row r="98" ht="75" customHeight="1" spans="1:4">
+    </row>
+    <row r="98" ht="171.75" customHeight="1" spans="1:4">
       <c r="A98" s="37"/>
       <c r="C98" s="62"/>
       <c r="D98" s="62"/>
     </row>
-    <row r="99" ht="82.5" customHeight="1" spans="1:8">
+    <row r="99" ht="75" customHeight="1" spans="1:4">
       <c r="A99" s="37"/>
       <c r="C99" s="62"/>
       <c r="D99" s="62"/>
-      <c r="H99" s="66"/>
     </row>
     <row r="100" ht="82.5" customHeight="1" spans="1:8">
       <c r="A100" s="37"/>
@@ -3458,27 +3471,33 @@
       <c r="D100" s="62"/>
       <c r="H100" s="66"/>
     </row>
-    <row r="101" ht="259.5" customHeight="1" spans="1:4">
+    <row r="101" ht="82.5" customHeight="1" spans="1:8">
       <c r="A101" s="37"/>
       <c r="C101" s="62"/>
       <c r="D101" s="62"/>
-    </row>
-    <row r="102" ht="156" customHeight="1" spans="1:1">
+      <c r="H101" s="66"/>
+    </row>
+    <row r="102" ht="259.5" customHeight="1" spans="1:4">
       <c r="A102" s="37"/>
-    </row>
-    <row r="103" ht="234" customHeight="1" spans="1:1">
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+    </row>
+    <row r="103" ht="156" customHeight="1" spans="1:1">
       <c r="A103" s="37"/>
     </row>
-    <row r="104" ht="165.95" customHeight="1"/>
-    <row r="105" ht="156" customHeight="1"/>
-    <row r="106" ht="111" customHeight="1"/>
-    <row r="107" ht="141" customHeight="1"/>
-    <row r="108" ht="111.75" customHeight="1"/>
+    <row r="104" ht="234" customHeight="1" spans="1:1">
+      <c r="A104" s="37"/>
+    </row>
+    <row r="105" ht="165.95" customHeight="1"/>
+    <row r="106" ht="156" customHeight="1"/>
+    <row r="107" ht="111" customHeight="1"/>
+    <row r="108" ht="141" customHeight="1"/>
+    <row r="109" ht="111.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:L41"/>
+  <autoFilter ref="A2:L42"/>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D37:D39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="http://121.40.104.203:8888/rest/" tooltip="http://121.40.104.203:8888/rest/"/>
@@ -3516,7 +3535,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -3552,22 +3571,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -3576,22 +3595,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3600,22 +3619,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3624,25 +3643,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="120.2" customHeight="1" spans="1:8">
@@ -3650,20 +3669,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3672,22 +3691,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3721,24 +3740,24 @@
         <v>-2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="20"/>
     </row>
@@ -3748,26 +3767,26 @@
         <v>-1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J2" s="20"/>
     </row>
@@ -3777,26 +3796,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J3" s="20"/>
     </row>
@@ -3806,22 +3825,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
@@ -3833,26 +3852,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J5" s="20"/>
     </row>
@@ -3862,24 +3881,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -3895,8 +3914,8 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3919,7 +3938,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3965,25 +3984,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3994,22 +4013,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="11"/>
@@ -4021,22 +4040,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="11"/>
@@ -4048,22 +4067,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="11"/>
@@ -4075,22 +4094,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="11"/>
@@ -4102,22 +4121,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="11"/>
@@ -4129,22 +4148,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="11"/>
@@ -4156,22 +4175,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="11"/>
@@ -4183,20 +4202,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="11"/>
@@ -4208,20 +4227,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="11"/>
@@ -4233,20 +4252,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="11"/>
@@ -4258,20 +4277,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="11"/>
@@ -4283,20 +4302,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="11"/>
@@ -4308,20 +4327,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="11"/>
@@ -4333,20 +4352,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="11"/>
@@ -4358,20 +4377,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="11"/>
@@ -4383,22 +4402,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="11"/>
@@ -4410,22 +4429,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="11"/>
@@ -4437,22 +4456,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="11"/>
@@ -4464,20 +4483,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="11"/>
@@ -4489,22 +4508,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="11"/>
